--- a/resultados/Experimento 7 Q-15.xlsx
+++ b/resultados/Experimento 7 Q-15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F370AD4-B16A-4607-9A39-0B1B65E15A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049BF92-D9AC-4327-95AA-46C20854A708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +582,9 @@
       <selection activeCell="D57" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,21 +598,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>549.06560268175019</v>
+        <v>542.03893308151919</v>
       </c>
       <c r="C2">
-        <v>567.44764329395389</v>
+        <v>566.30223000614512</v>
       </c>
       <c r="D2">
-        <v>20.7683658617083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.978334024921061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -619,111 +620,111 @@
         <v>522.56046533817175</v>
       </c>
       <c r="C3">
-        <v>529.48626927100997</v>
+        <v>530.65596630158757</v>
       </c>
       <c r="D3">
-        <v>22.543663624720651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.447510887496168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>515.6001825849105</v>
+        <v>507.12360272975991</v>
       </c>
       <c r="C4">
-        <v>526.1525815387721</v>
+        <v>524.33371495259973</v>
       </c>
       <c r="D4">
-        <v>27.00102718090638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.740654950961471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>500.1452478061845</v>
+        <v>492.37465897577528</v>
       </c>
       <c r="C5">
-        <v>517.76410113620329</v>
+        <v>515.93059066395119</v>
       </c>
       <c r="D5">
-        <v>28.947633136063811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.095525369048119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>527.82411650270922</v>
+        <v>534.30697099451243</v>
       </c>
       <c r="C6">
-        <v>548.09788115408332</v>
+        <v>545.49918546886636</v>
       </c>
       <c r="D6">
-        <v>22.596972534479569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.649239480495449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>536.88913797107978</v>
+        <v>529.68455745826168</v>
       </c>
       <c r="C7">
-        <v>553.03638103534774</v>
+        <v>548.6878741316234</v>
       </c>
       <c r="D7">
-        <v>21.770968125946819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.881707796454432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>528.5671161951866</v>
+        <v>525.63972961364118</v>
       </c>
       <c r="C8">
-        <v>543.34913497572632</v>
+        <v>541.62189187937418</v>
       </c>
       <c r="D8">
-        <v>24.29657203103416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.3017654504627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>528.59419549939923</v>
+        <v>524.68943686477246</v>
       </c>
       <c r="C9">
-        <v>538.66705894513814</v>
+        <v>539.97891723779094</v>
       </c>
       <c r="D9">
-        <v>28.823937547532839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.5354971813038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10">
-        <v>521.28779325656433</v>
+        <v>513.26577722734828</v>
       </c>
       <c r="C10">
-        <v>529.14973707034915</v>
+        <v>530.97286413091263</v>
       </c>
       <c r="D10">
-        <v>27.08743889634497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.370405059494079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -731,13 +732,13 @@
         <v>621.4345090480798</v>
       </c>
       <c r="C11">
-        <v>640.19053655523976</v>
+        <v>641.94124520752609</v>
       </c>
       <c r="D11">
-        <v>23.170131108211351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.536581852473319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -745,13 +746,13 @@
         <v>614.62404623303746</v>
       </c>
       <c r="C12">
-        <v>624.11974974373413</v>
+        <v>629.12143853343343</v>
       </c>
       <c r="D12">
-        <v>25.754133033426481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.567771724611521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -759,27 +760,27 @@
         <v>587.9249866477237</v>
       </c>
       <c r="C13">
-        <v>611.40871982817293</v>
+        <v>613.00020491204248</v>
       </c>
       <c r="D13">
-        <v>36.569844062626359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32.818720454350107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14">
-        <v>579.01507130336984</v>
+        <v>571.80151651436222</v>
       </c>
       <c r="C14">
-        <v>598.15148120546974</v>
+        <v>597.53499017332126</v>
       </c>
       <c r="D14">
-        <v>28.887151817837729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.191456298343841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -787,55 +788,55 @@
         <v>616.011995931098</v>
       </c>
       <c r="C15">
-        <v>630.89029958122524</v>
+        <v>632.25446397549945</v>
       </c>
       <c r="D15">
-        <v>31.444784926250581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.28641382660717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>598.02825724313504</v>
+        <v>601.97454850332008</v>
       </c>
       <c r="C16">
-        <v>627.62996728679923</v>
+        <v>632.5778255403485</v>
       </c>
       <c r="D16">
-        <v>33.863671733858062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.35502907261252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>599.50943631347945</v>
+        <v>600.94001451397878</v>
       </c>
       <c r="C17">
-        <v>633.22750302556881</v>
+        <v>626.98403528167</v>
       </c>
       <c r="D17">
-        <v>34.439615981653333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32.245000424236061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>597.06522679619252</v>
+        <v>604.48420546194109</v>
       </c>
       <c r="C18">
-        <v>608.19395526014705</v>
+        <v>611.40834296096057</v>
       </c>
       <c r="D18">
-        <v>32.774932503513988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.663704249821599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -846,150 +847,150 @@
         <v>852.70439150166408</v>
       </c>
       <c r="D19">
-        <v>22.250501862494271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.235259427689019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
-        <v>769.25181989085047</v>
+        <v>770.11524609862556</v>
       </c>
       <c r="C20">
-        <v>783.87345230505116</v>
+        <v>786.17881013049566</v>
       </c>
       <c r="D20">
-        <v>30.330979594634851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.691934214904901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>676.04696694983477</v>
+        <v>676.17061344424155</v>
       </c>
       <c r="C21">
-        <v>705.13411024884829</v>
+        <v>702.54925564243069</v>
       </c>
       <c r="D21">
-        <v>28.9349636846222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.825945549085741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22">
-        <v>633.96853715028305</v>
+        <v>622.59529951953914</v>
       </c>
       <c r="C22">
-        <v>646.20702891790017</v>
+        <v>647.84484480723142</v>
       </c>
       <c r="D22">
-        <v>26.047687883675099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.783599401265381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>755.25467323251144</v>
+        <v>761.9208011733723</v>
       </c>
       <c r="C23">
-        <v>782.9468575552404</v>
+        <v>781.17548626203575</v>
       </c>
       <c r="D23">
-        <v>22.47068861955777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.643660195171829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>728.37728927187004</v>
+        <v>725.7103535095049</v>
       </c>
       <c r="C24">
-        <v>749.4100278651008</v>
+        <v>744.74821797694017</v>
       </c>
       <c r="D24">
-        <v>26.712043916340921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.85243080221117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
-        <v>672.16909206339074</v>
+        <v>667.94783217061467</v>
       </c>
       <c r="C25">
-        <v>696.6917252015279</v>
+        <v>697.73668139655751</v>
       </c>
       <c r="D25">
-        <v>24.8882136868313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.548699044622481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>628.49400060426592</v>
+        <v>634.33416149587538</v>
       </c>
       <c r="C26">
-        <v>645.5476924872537</v>
+        <v>646.91179404314698</v>
       </c>
       <c r="D26">
-        <v>27.147168917069209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.103692905977368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
-        <v>674.12848182906555</v>
+        <v>664.55874446291614</v>
       </c>
       <c r="C27">
-        <v>693.24313833412236</v>
+        <v>690.74724846652475</v>
       </c>
       <c r="D27">
-        <v>27.426522473199292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.250057026930151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>646.30836404994147</v>
+        <v>645.83844380590153</v>
       </c>
       <c r="C28">
-        <v>654.25230125763221</v>
+        <v>655.15189381052653</v>
       </c>
       <c r="D28">
-        <v>24.57030751481652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.613381298258901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>657.44722424787847</v>
+        <v>662.08461214033525</v>
       </c>
       <c r="C29">
-        <v>682.85466483983191</v>
+        <v>685.93365204303541</v>
       </c>
       <c r="D29">
-        <v>23.704408356081689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.693096909299491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -997,125 +998,125 @@
         <v>625.03803318712437</v>
       </c>
       <c r="C30">
-        <v>635.37251137608712</v>
+        <v>634.31451292573081</v>
       </c>
       <c r="D30">
-        <v>20.72151507264935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.959143128246069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31">
-        <v>781.94675431295138</v>
+        <v>768.20229128039421</v>
       </c>
       <c r="C31">
-        <v>794.5575759696892</v>
+        <v>791.70352963605853</v>
       </c>
       <c r="D31">
-        <v>22.078249479737131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.328469722531739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
-        <v>696.90759555561056</v>
+        <v>721.92256594142555</v>
       </c>
       <c r="C32">
-        <v>744.68748213647143</v>
+        <v>740.85192027797689</v>
       </c>
       <c r="D32">
-        <v>26.134423473384231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.383263451419769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33">
-        <v>667.45574412869507</v>
+        <v>669.68660849122955</v>
       </c>
       <c r="C33">
-        <v>693.29448679467146</v>
+        <v>691.74745663502824</v>
       </c>
       <c r="D33">
-        <v>23.264923798618842</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.544235067069529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
-        <v>652.91129976496313</v>
+        <v>649.65205161469976</v>
       </c>
       <c r="C34">
-        <v>667.44090492081955</v>
+        <v>665.85199868925247</v>
       </c>
       <c r="D34">
-        <v>27.141601488087321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.236326856724919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35">
-        <v>701.91355111649398</v>
+        <v>707.71189591330597</v>
       </c>
       <c r="C35">
-        <v>722.76133161864107</v>
+        <v>722.38091865815227</v>
       </c>
       <c r="D35">
-        <v>25.66380193061195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.316295472159979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
-        <v>710.48030471078368</v>
+        <v>704.30477359992153</v>
       </c>
       <c r="C36">
-        <v>734.83416873149167</v>
+        <v>743.93504777538897</v>
       </c>
       <c r="D36">
-        <v>21.828988821711391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.67024241983891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
-        <v>660.88371100218478</v>
+        <v>663.16448135849532</v>
       </c>
       <c r="C37">
-        <v>690.50853695296337</v>
+        <v>684.2561488197349</v>
       </c>
       <c r="D37">
-        <v>24.357530264835809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.057736706919972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
-        <v>631.55652484944778</v>
+        <v>629.89161234054029</v>
       </c>
       <c r="C38">
-        <v>653.50032187010606</v>
+        <v>654.64694429418182</v>
       </c>
       <c r="D38">
-        <v>24.599920441908761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.67826697789133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1123,27 +1124,27 @@
         <v>655.58644317466133</v>
       </c>
       <c r="C39">
-        <v>666.00742546105096</v>
+        <v>664.64710907170752</v>
       </c>
       <c r="D39">
-        <v>25.694414548529309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.025101920589801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>684.38602414757747</v>
+        <v>688.68514716139475</v>
       </c>
       <c r="C40">
-        <v>694.36781109884873</v>
+        <v>692.85280636821039</v>
       </c>
       <c r="D40">
-        <v>22.74562276070937</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.543564274534582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1151,234 +1152,234 @@
         <v>615.02522817672593</v>
       </c>
       <c r="C41">
-        <v>633.91603216757562</v>
+        <v>632.82138162809883</v>
       </c>
       <c r="D41">
-        <v>22.228766660997639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.65912571288645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>760.2940662082035</v>
+        <v>760.29406620820373</v>
       </c>
       <c r="C42">
-        <v>826.23665125849527</v>
+        <v>830.08398325536473</v>
       </c>
       <c r="D42">
-        <v>24.957851270167161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.702838888950641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>707.61441789083233</v>
+        <v>713.89982899905249</v>
       </c>
       <c r="C43">
-        <v>727.65642603078777</v>
+        <v>728.44333030605276</v>
       </c>
       <c r="D43">
-        <v>31.012989743659269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.02926484551281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>700.5675788807257</v>
+        <v>700.75716448487469</v>
       </c>
       <c r="C44">
-        <v>708.70913419235683</v>
+        <v>709.5924886815551</v>
       </c>
       <c r="D44">
-        <v>29.253852416062731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.03967069722712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>643.28892424492255</v>
+        <v>640.07250117512626</v>
       </c>
       <c r="C45">
-        <v>653.24009831803653</v>
+        <v>657.25001299913697</v>
       </c>
       <c r="D45">
-        <v>27.5256998155266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.810668865963819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46">
-        <v>719.57388592140126</v>
+        <v>720.66737027944782</v>
       </c>
       <c r="C46">
-        <v>736.02512843826435</v>
+        <v>738.77254815512731</v>
       </c>
       <c r="D46">
-        <v>31.77011306625791</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.44196336567402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47">
-        <v>695.11192233230213</v>
+        <v>691.19037366225962</v>
       </c>
       <c r="C47">
-        <v>724.27041353538584</v>
+        <v>726.5721351598703</v>
       </c>
       <c r="D47">
-        <v>36.481083548581218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.624954763427382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48">
-        <v>675.7800757810968</v>
+        <v>660.59355284096193</v>
       </c>
       <c r="C48">
-        <v>696.00223161857116</v>
+        <v>697.03378044622639</v>
       </c>
       <c r="D48">
-        <v>29.808699221303691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.929295172169809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
-        <v>626.5891044462237</v>
+        <v>630.59220910289082</v>
       </c>
       <c r="C49">
-        <v>642.23444894286172</v>
+        <v>644.15786264139774</v>
       </c>
       <c r="D49">
-        <v>27.37314695627429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.083785725384949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>781.86879099914836</v>
+        <v>784.97009600654656</v>
       </c>
       <c r="C50">
-        <v>831.94960582901422</v>
+        <v>837.80080335270452</v>
       </c>
       <c r="D50">
-        <v>26.372424329817299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.63096201121807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
-        <v>738.69912798112614</v>
+        <v>738.60555517860894</v>
       </c>
       <c r="C51">
-        <v>756.15791982267274</v>
+        <v>758.19301568237756</v>
       </c>
       <c r="D51">
-        <v>25.998115482088181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.98590197134763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>678.14840600146044</v>
+        <v>675.66768471034652</v>
       </c>
       <c r="C52">
-        <v>703.81811175734379</v>
+        <v>702.12217998533538</v>
       </c>
       <c r="D52">
-        <v>30.721221209596841</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.175235365889971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>644.30791790651836</v>
+        <v>634.85517949695077</v>
       </c>
       <c r="C53">
-        <v>660.50469921877482</v>
+        <v>649.04347756607865</v>
       </c>
       <c r="D53">
-        <v>26.128166073746979</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.411535998992619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54">
-        <v>727.50792000386491</v>
+        <v>729.84984280634035</v>
       </c>
       <c r="C54">
-        <v>765.23364033299151</v>
+        <v>758.34731538626386</v>
       </c>
       <c r="D54">
-        <v>26.627228296268729</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.862292234227059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>737.07577061366919</v>
+        <v>738.82830123013559</v>
       </c>
       <c r="C55">
-        <v>779.48930533143596</v>
+        <v>779.01289349254216</v>
       </c>
       <c r="D55">
-        <v>27.94965634658001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.651259560883041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>685.00954290214418</v>
+        <v>704.35912891066187</v>
       </c>
       <c r="C56">
-        <v>717.06956192774362</v>
+        <v>719.30510161866141</v>
       </c>
       <c r="D56">
-        <v>26.65836130557582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.95405688267201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57">
-        <v>625.35437300645685</v>
+        <v>615.4436307064658</v>
       </c>
       <c r="C57">
-        <v>645.34589539919091</v>
+        <v>644.4737349030662</v>
       </c>
       <c r="D57">
-        <v>26.542732696095481</v>
+        <v>25.0057233709842</v>
       </c>
     </row>
   </sheetData>
